--- a/study_distractor/participant.xlsx
+++ b/study_distractor/participant.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="2320" yWindow="-20800" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,12 +69,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,7 +378,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -384,20 +391,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
         <v>4</v>
       </c>
     </row>
@@ -406,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -415,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -423,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -432,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -443,29 +450,29 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
         <v>4</v>
       </c>
     </row>
@@ -474,7 +481,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -483,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -491,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -500,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -511,29 +518,29 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
         <v>4</v>
       </c>
     </row>
@@ -542,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -551,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -559,7 +566,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -568,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -579,29 +586,29 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
         <v>4</v>
       </c>
     </row>
@@ -610,7 +617,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -619,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -627,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -636,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -647,10 +654,10 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>1</v>

--- a/study_distractor/participant.xlsx
+++ b/study_distractor/participant.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanteng/Documents/Github/qian/study_distractor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hang12/GitHub/qian/study_distractor/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="-20800" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="6760" yWindow="7160" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,12 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t>blocks</t>
-  </si>
-  <si>
     <t>block 1</t>
   </si>
   <si>
@@ -54,6 +51,12 @@
   </si>
   <si>
     <t>block 4</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Order</t>
   </si>
 </sst>
 </file>
@@ -378,17 +381,18 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -408,20 +412,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
     </row>
@@ -476,20 +480,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
     </row>
@@ -544,20 +548,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
         <v>2</v>
       </c>
     </row>
@@ -612,20 +616,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
         <v>2</v>
       </c>
     </row>
@@ -665,46 +669,46 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/study_distractor/participant.xlsx
+++ b/study_distractor/participant.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6760" yWindow="7160" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="2540" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>block 1</t>
   </si>
   <si>
-    <t>sit</t>
-  </si>
-  <si>
     <t>no distract</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>stand</t>
   </si>
 </sst>
 </file>
@@ -382,17 +382,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -429,20 +429,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>3</v>
       </c>
     </row>
@@ -497,20 +497,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
         <v>3</v>
       </c>
     </row>
@@ -565,20 +565,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <v>3</v>
       </c>
     </row>
@@ -633,20 +633,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
         <v>3</v>
       </c>
     </row>
@@ -672,43 +672,43 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/study_distractor/participant.xlsx
+++ b/study_distractor/participant.xlsx
@@ -382,7 +382,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="2" sqref="A9:XFD9 A13:XFD13 A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,20 +446,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -514,20 +514,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -582,20 +582,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -650,20 +650,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
         <v>1</v>
       </c>
     </row>

--- a/study_distractor/participant.xlsx
+++ b/study_distractor/participant.xlsx
@@ -382,7 +382,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="2" sqref="A9:XFD9 A13:XFD13 A17:XFD17"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
